--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_24_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_24_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>459837.6071268739</v>
+        <v>473563.965264292</v>
       </c>
     </row>
     <row r="7">
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>553011.5286340009</v>
+        <v>553011.528634001</v>
       </c>
       <c r="C2" t="n">
-        <v>553011.528634001</v>
+        <v>553011.5286340008</v>
       </c>
       <c r="D2" t="n">
-        <v>553011.5286340009</v>
+        <v>553011.5286340008</v>
       </c>
       <c r="E2" t="n">
         <v>154332.7400023158</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="C4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
-        <v>76451.3280043197</v>
+        <v>76451.32800431969</v>
       </c>
       <c r="F4" t="n">
-        <v>76451.3280043197</v>
+        <v>76451.32800431969</v>
       </c>
       <c r="G4" t="n">
-        <v>76451.3280043197</v>
+        <v>76451.32800431969</v>
       </c>
       <c r="H4" t="n">
-        <v>76451.3280043197</v>
+        <v>76451.32800431969</v>
       </c>
       <c r="I4" t="n">
-        <v>76451.3280043197</v>
+        <v>76451.32800431969</v>
       </c>
       <c r="J4" t="n">
-        <v>76451.3280043197</v>
+        <v>76451.32800431969</v>
       </c>
       <c r="K4" t="n">
-        <v>76451.3280043197</v>
+        <v>76451.32800431969</v>
       </c>
       <c r="L4" t="n">
-        <v>76451.3280043197</v>
+        <v>76451.32800431969</v>
       </c>
       <c r="M4" t="n">
-        <v>76451.3280043197</v>
+        <v>76451.32800431969</v>
       </c>
       <c r="N4" t="n">
-        <v>76451.3280043197</v>
+        <v>76451.32800431969</v>
       </c>
       <c r="O4" t="n">
-        <v>76451.3280043197</v>
+        <v>76451.32800431969</v>
       </c>
       <c r="P4" t="n">
-        <v>76451.3280043197</v>
+        <v>76451.32800431969</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>51767.96870226966</v>
+        <v>51767.96870226981</v>
       </c>
       <c r="C6" t="n">
-        <v>51767.96870226978</v>
+        <v>51767.96870226958</v>
       </c>
       <c r="D6" t="n">
-        <v>51767.96870226966</v>
+        <v>51767.96870226958</v>
       </c>
       <c r="E6" t="n">
-        <v>-58830.20010701224</v>
+        <v>-58830.20010701229</v>
       </c>
       <c r="F6" t="n">
-        <v>74269.79989298776</v>
+        <v>74269.79989298778</v>
       </c>
       <c r="G6" t="n">
-        <v>74269.79989298776</v>
+        <v>74269.79989298778</v>
       </c>
       <c r="H6" t="n">
-        <v>74269.79989298776</v>
+        <v>74269.79989298778</v>
       </c>
       <c r="I6" t="n">
-        <v>74269.79989298776</v>
+        <v>74269.79989298778</v>
       </c>
       <c r="J6" t="n">
-        <v>74269.79989298776</v>
+        <v>74269.79989298778</v>
       </c>
       <c r="K6" t="n">
-        <v>74269.79989298776</v>
+        <v>74269.79989298778</v>
       </c>
       <c r="L6" t="n">
-        <v>74269.79989298776</v>
+        <v>74269.79989298778</v>
       </c>
       <c r="M6" t="n">
-        <v>74269.79989298776</v>
+        <v>74269.79989298778</v>
       </c>
       <c r="N6" t="n">
-        <v>74269.79989298776</v>
+        <v>74269.79989298778</v>
       </c>
       <c r="O6" t="n">
-        <v>74269.79989298776</v>
+        <v>74269.79989298778</v>
       </c>
       <c r="P6" t="n">
-        <v>74269.79989298776</v>
+        <v>74269.79989298778</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_24_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_24_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>473563.965264292</v>
+        <v>389778.5635026678</v>
       </c>
     </row>
     <row r="7">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>553011.528634001</v>
+        <v>553011.5286340012</v>
       </c>
       <c r="C2" t="n">
-        <v>553011.5286340008</v>
+        <v>553011.5286340012</v>
       </c>
       <c r="D2" t="n">
-        <v>553011.5286340008</v>
+        <v>553011.5286340009</v>
       </c>
       <c r="E2" t="n">
         <v>154332.7400023158</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>51767.96870226981</v>
+        <v>51723.8329235888</v>
       </c>
       <c r="C6" t="n">
-        <v>51767.96870226958</v>
+        <v>51723.8329235888</v>
       </c>
       <c r="D6" t="n">
-        <v>51767.96870226958</v>
+        <v>51723.83292358857</v>
       </c>
       <c r="E6" t="n">
-        <v>-58830.20010701229</v>
+        <v>-73640.21694612617</v>
       </c>
       <c r="F6" t="n">
-        <v>74269.79989298778</v>
+        <v>59459.78305387391</v>
       </c>
       <c r="G6" t="n">
-        <v>74269.79989298778</v>
+        <v>59459.78305387391</v>
       </c>
       <c r="H6" t="n">
-        <v>74269.79989298778</v>
+        <v>59459.78305387391</v>
       </c>
       <c r="I6" t="n">
-        <v>74269.79989298778</v>
+        <v>59459.78305387391</v>
       </c>
       <c r="J6" t="n">
-        <v>74269.79989298778</v>
+        <v>59459.78305387391</v>
       </c>
       <c r="K6" t="n">
-        <v>74269.79989298778</v>
+        <v>59459.78305387391</v>
       </c>
       <c r="L6" t="n">
-        <v>74269.79989298778</v>
+        <v>59459.78305387391</v>
       </c>
       <c r="M6" t="n">
-        <v>74269.79989298778</v>
+        <v>59459.78305387391</v>
       </c>
       <c r="N6" t="n">
-        <v>74269.79989298778</v>
+        <v>59459.78305387391</v>
       </c>
       <c r="O6" t="n">
-        <v>74269.79989298778</v>
+        <v>59459.78305387391</v>
       </c>
       <c r="P6" t="n">
-        <v>74269.79989298778</v>
+        <v>59459.78305387391</v>
       </c>
     </row>
   </sheetData>
